--- a/HaierMDM/供应商引入通用接口/供应商接口字段说明.xlsx
+++ b/HaierMDM/供应商引入通用接口/供应商接口字段说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14895" windowHeight="4560"/>
@@ -356,8 +356,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +578,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,9 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -613,11 +613,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -691,6 +696,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -725,6 +731,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -900,14 +907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
@@ -917,13 +924,13 @@
     <col min="6" max="6" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -937,8 +944,8 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,8 +956,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +971,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -976,8 +983,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -988,8 +995,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1000,8 +1007,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1015,8 +1022,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1030,8 +1037,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1042,11 +1049,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1062,9 +1069,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
@@ -1078,9 +1085,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,9 +1101,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1110,9 +1117,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1126,11 +1133,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1143,9 +1150,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1159,9 +1166,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1172,9 +1179,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1188,11 +1195,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1208,9 +1215,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
@@ -1224,9 +1231,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="2" t="s">
         <v>72</v>
       </c>
@@ -1237,8 +1244,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1257,15 +1264,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
       <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1273,15 +1280,15 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
       <c r="B25" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1289,15 +1296,15 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1305,15 +1312,15 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
       <c r="B27" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1321,8 +1328,8 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
       <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
@@ -1339,12 +1346,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1352,7 +1359,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1394,12 +1401,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,12 +1414,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HaierMDM/供应商引入通用接口/供应商接口字段说明.xlsx
+++ b/HaierMDM/供应商引入通用接口/供应商接口字段说明.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14895" windowHeight="4560"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="接口基本" sheetId="1" r:id="rId1"/>
+    <sheet name="更新逻辑" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>供应商名称</t>
   </si>
@@ -221,135 +221,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可根据需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否更新银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例间接采购系统这个字段值必须是JJGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_VENDOR_PUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购组织</t>
+  </si>
+  <si>
+    <t>订单货币</t>
+  </si>
+  <si>
+    <t>PI合作伙伴</t>
+  </si>
+  <si>
+    <t>PURCHASE_GRP_CODE</t>
+  </si>
+  <si>
+    <t>ORDER_CURRENCY</t>
+  </si>
+  <si>
+    <t>PARTNER_PI</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(Country)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(Region)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(CompanyCode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(ReconcileAccount)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(OrderCode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(PayTerm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(PayMethod)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(银行表 hm_banks)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(PurchaseOrganization)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框(Currency)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统驭科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否更新基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否更新公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否更新采购信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X'代表更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例间接采购系统只有新增和扩展，新增时该字段值为CREATE;扩展时为EXTEND更新UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时的必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>in_VENDOR_CODE</t>
-  </si>
-  <si>
-    <t>选择框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可根据需要修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否更新银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新银行信息的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要更新银行信息，view_bank请赋值上X。
+银行信息更新时，该条银行信息的所有字段，都为必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新公司信息的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新采购信息的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_pur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要更新采购信息，view_pur请赋值上X。
+采购信息更新的时候，采购组织代码为必填项。
+要更新哪个字段，就给哪个字段赋值。不赋值的字段不更新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要更新公司信息，view_comp请赋值上X。
+公司信息更新的时候，公司代码为必填项。
+要更新哪个字段，就给哪个字段赋值。不赋值的字段不更新。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>operate_type</t>
-  </si>
-  <si>
-    <t>举例间接采购系统这个字段值必须是JJGO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_VENDOR_PUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购组织</t>
-  </si>
-  <si>
-    <t>订单货币</t>
-  </si>
-  <si>
-    <t>PI合作伙伴</t>
-  </si>
-  <si>
-    <t>PURCHASE_GRP_CODE</t>
-  </si>
-  <si>
-    <t>ORDER_CURRENCY</t>
-  </si>
-  <si>
-    <t>PARTNER_PI</t>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(Country)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(Region)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(CompanyCode)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(ReconcileAccount)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(OrderCode)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(PayTerm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(PayMethod)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(银行表 hm_banks)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(PurchaseOrganization)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择框(Currency)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统驭科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新基本信息的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>view_base</t>
-  </si>
-  <si>
-    <t>view_comp</t>
-  </si>
-  <si>
-    <t>view_pur</t>
-  </si>
-  <si>
-    <t>是否更新基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否更新公司信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否更新采购信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X'代表更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例间接采购系统只有新增和扩展，新增时该字段值为CREATE;扩展时为EXTEND更新UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管更新什么 （in_VENDOR_CODE）供应商编码永远是必填项
+operate_type='UPDATE'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要更新基本信息，view_base请赋值上X。
+基本信息更新的时候，供应商代码（in_VENDOR_CODE）为必填项。
+要更新哪个字段，就给哪个字段赋值。不赋值的字段不更新。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,18 +430,21 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -398,12 +455,14 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -413,6 +472,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -424,8 +484,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +523,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +639,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +661,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,6 +680,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,14 +1031,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -945,7 +1046,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1058,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -968,11 +1069,11 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,7 +1085,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -996,7 +1097,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1109,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1019,11 +1120,11 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1034,11 +1135,11 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1050,10 +1151,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1063,17 +1164,17 @@
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -1082,12 +1183,12 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,12 +1199,12 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1114,12 +1215,12 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1130,14 +1231,14 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1151,8 +1252,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1163,12 +1264,12 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1180,8 +1281,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1192,158 +1293,158 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>69</v>
+      <c r="B20" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>67</v>
+      <c r="C28" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1402,14 +1503,601 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="F1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B30" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B41" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B54:M58"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:M14"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="F18:M27"/>
+    <mergeCell ref="B30:E31"/>
+    <mergeCell ref="F30:M39"/>
+    <mergeCell ref="F1:M4"/>
+    <mergeCell ref="B41:E42"/>
+    <mergeCell ref="F41:M50"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1417,7 +2105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
